--- a/tablas-figuras-2_1.xlsx
+++ b/tablas-figuras-2_1.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Figura 01" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla 01" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -372,7 +369,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="269">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -649,6 +646,16 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -681,12 +688,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="269">
+  <cellStyles count="279">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Euro" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo 2" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Millares 10" xfId="4"/>
     <cellStyle name="Millares 11" xfId="5"/>
     <cellStyle name="Millares 12" xfId="6"/>
@@ -993,7 +1010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Figura 01'!$B$30</c:f>
+              <c:f>'Figura 01'!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1005,7 +1022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Figura 01'!$C$29:$H$29</c:f>
+              <c:f>'Figura 01'!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1032,7 +1049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Figura 01'!$C$30:$H$30</c:f>
+              <c:f>'Figura 01'!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1067,8 +1084,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2103180872"/>
-        <c:axId val="-2103175288"/>
+        <c:axId val="2109696776"/>
+        <c:axId val="2109703784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1078,7 +1095,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Figura 01'!$B$31</c:f>
+              <c:f>'Figura 01'!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1089,7 +1106,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Figura 01'!$C$29:$H$29</c:f>
+              <c:f>'Figura 01'!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1116,7 +1133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Figura 01'!$C$31:$H$31</c:f>
+              <c:f>'Figura 01'!$C$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1153,11 +1170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103163960"/>
-        <c:axId val="-2103169624"/>
+        <c:axId val="2109715256"/>
+        <c:axId val="2109709576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103180872"/>
+        <c:axId val="2109696776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103175288"/>
+        <c:crossAx val="2109703784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103175288"/>
+        <c:axId val="2109703784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,12 +1283,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103180872"/>
+        <c:crossAx val="2109696776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103169624"/>
+        <c:axId val="2109709576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,12 +1333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103163960"/>
+        <c:crossAx val="2109715256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2103163960"/>
+        <c:axId val="2109715256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2103169624"/>
+        <c:crossAx val="2109709576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1381,16 +1398,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>809624</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1412,96 +1429,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Act_eco1"/>
-      <sheetName val="Act_eco2"/>
-      <sheetName val="Act_bosque"/>
-      <sheetName val="Act-subsuelo"/>
-      <sheetName val="CIGTA1"/>
-      <sheetName val="CIGTA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>1950</v>
-          </cell>
-          <cell r="D5">
-            <v>1978</v>
-          </cell>
-          <cell r="E5">
-            <v>1991</v>
-          </cell>
-          <cell r="F5">
-            <v>2001</v>
-          </cell>
-          <cell r="G5">
-            <v>2006</v>
-          </cell>
-          <cell r="H5">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Extensiòn (ha)</v>
-          </cell>
-          <cell r="C6">
-            <v>6974.3</v>
-          </cell>
-          <cell r="D6">
-            <v>5700.3</v>
-          </cell>
-          <cell r="E6">
-            <v>5121.6000000000004</v>
-          </cell>
-          <cell r="F6">
-            <v>4152</v>
-          </cell>
-          <cell r="G6">
-            <v>3868.7</v>
-          </cell>
-          <cell r="H6">
-            <v>3722.6</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Proporción del territorio nacional (%)</v>
-          </cell>
-          <cell r="C7">
-            <v>64.5</v>
-          </cell>
-          <cell r="D7">
-            <v>52.35</v>
-          </cell>
-          <cell r="E7">
-            <v>47.04</v>
-          </cell>
-          <cell r="F7">
-            <v>38.130000000000003</v>
-          </cell>
-          <cell r="G7">
-            <v>35.53</v>
-          </cell>
-          <cell r="H7">
-            <v>34.19</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1826,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1842,76 +1769,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1"/>
-    <row r="29" spans="2:8">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13">
+    <row r="29" spans="2:8" ht="15" thickBot="1"/>
+    <row r="30" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="13">
         <v>1950</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>1978</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>1991</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>2001</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>2006</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="11" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>6974.3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>5700.3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>5121.6000000000004</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>4152</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>3868.7</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <v>3722.6</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1">
-      <c r="B31" s="12" t="s">
+    <row r="32" spans="2:8" ht="15" thickBot="1">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>64.5</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>52.35</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>47.04</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>38.130000000000003</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>35.53</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <v>34.19</v>
       </c>
     </row>
@@ -1932,7 +1859,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2083,6 +2010,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
